--- a/tests/ExportProjectDefinition.XLSX
+++ b/tests/ExportProjectDefinition.XLSX
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PipeCAD\Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PipeCAD\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A928BB44-7FC0-496C-A797-08DF40A04933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F99D5A-0963-4BE8-ADA5-963A3E723BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6810" yWindow="1380" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{3E69E825-942A-412B-8025-08F9A089319F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="294">
   <si>
     <t>#Keyword</t>
   </si>
@@ -866,6 +866,60 @@
   </si>
   <si>
     <t xml:space="preserve">TEAM_0001/DESI-MODULE-001 TEAM_0001/DESI-MODULE-002 TEAM_0001/DESI-MODULE-003 TEAM_0001/DESI-MODULE-004 TEAM_0001/DESI-MODULE-005 </t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>MODULE-001/001</t>
+  </si>
+  <si>
+    <t>MODULE-001/002</t>
+  </si>
+  <si>
+    <t>MODULE-001/003</t>
+  </si>
+  <si>
+    <t>MODULE-001/004</t>
+  </si>
+  <si>
+    <t>MODULE-001/005</t>
+  </si>
+  <si>
+    <t>MODULE-001/006</t>
+  </si>
+  <si>
+    <t>MODULE-001/007</t>
+  </si>
+  <si>
+    <t>MODULE-001/008</t>
+  </si>
+  <si>
+    <t>MODULE-001/009</t>
+  </si>
+  <si>
+    <t>MODULE-001/010</t>
+  </si>
+  <si>
+    <t>MODULE-001/011</t>
+  </si>
+  <si>
+    <t>MODULE-001/012</t>
+  </si>
+  <si>
+    <t>MODULE-001/013</t>
+  </si>
+  <si>
+    <t>MODULE-001/014</t>
+  </si>
+  <si>
+    <t>MODULE-001/015</t>
+  </si>
+  <si>
+    <t>MODULE-001/016</t>
+  </si>
+  <si>
+    <t>MODULE-001/017</t>
   </si>
 </sst>
 </file>
@@ -2588,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71682F7E-2EEC-4E2C-BE43-BDBDC388582D}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,9 +2657,10 @@
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2627,8 +2682,11 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2650,8 +2708,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2673,8 +2734,11 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2696,8 +2760,11 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2719,8 +2786,11 @@
       <c r="G5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2742,8 +2812,11 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2765,8 +2838,11 @@
       <c r="G7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2788,8 +2864,11 @@
       <c r="G8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2811,8 +2890,11 @@
       <c r="G9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2834,8 +2916,11 @@
       <c r="G10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2857,8 +2942,11 @@
       <c r="G11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2880,8 +2968,11 @@
       <c r="G12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2903,8 +2994,11 @@
       <c r="G13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2926,8 +3020,11 @@
       <c r="G14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2949,8 +3046,11 @@
       <c r="G15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2972,8 +3072,11 @@
       <c r="G16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2995,8 +3098,11 @@
       <c r="G17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3017,6 +3123,9 @@
       </c>
       <c r="G18">
         <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.25">
